--- a/src/test/resources/template.xlsx
+++ b/src/test/resources/template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tool_ExcelConverter\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\EZ-ExcelConverter\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="收支报表" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>wwww</t>
+    <t>AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -164,6 +164,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -199,6 +216,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,49 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>11</v>
-      </c>
-      <c r="G1">
-        <v>11111</v>
-      </c>
-      <c r="H1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G2">
-        <v>2222</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <v>3333</v>
       </c>
     </row>
   </sheetData>
